--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_4_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_4_33.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>42156.45181069231</v>
+        <v>2714377.86299463</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42156.45181069231</v>
+        <v>2714377.86299463</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1418207477.567526</v>
+        <v>55561195.5948697</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12777.76722527576</v>
+        <v>1232874.78968486</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25162.86402853808</v>
+        <v>2397798.55199251</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>37547.96083180037</v>
+        <v>3562722.314300161</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>51224.75190160959</v>
+        <v>4657655.85862767</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>64901.54297141876</v>
+        <v>5752589.40295518</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>78578.33404122795</v>
+        <v>6847522.947282686</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>92255.12511103712</v>
+        <v>7942456.491610189</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>105931.9161808463</v>
+        <v>9037390.035937691</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>119608.7072506556</v>
+        <v>10132323.58026519</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>133285.4983204648</v>
+        <v>11227257.1245927</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>146621.030637455</v>
+        <v>12337031.82100834</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>159632.8591078917</v>
+        <v>13462142.94861929</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>172512.2748353549</v>
+        <v>14594114.1650429</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>187363.860985148</v>
+        <v>15565800.90886342</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>202215.4471349412</v>
+        <v>16537487.65268395</v>
       </c>
     </row>
   </sheetData>
@@ -27037,28 +27037,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>217</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>217</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1374</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
